--- a/spliced/falling/2023-03-25_18-03-49/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-49/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.829729080200196</v>
+        <v>-1.921436786651612</v>
       </c>
       <c r="B2" t="n">
-        <v>1.47260046005249</v>
+        <v>1.638089656829834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5425764322280884</v>
+        <v>0.3902863562107086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.84237813949585</v>
+        <v>-1.84520435333252</v>
       </c>
       <c r="B3" t="n">
-        <v>1.411740303039551</v>
+        <v>1.668948650360107</v>
       </c>
       <c r="C3" t="n">
-        <v>1.237700462341309</v>
+        <v>0.1994338035583496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.159674644470215</v>
+        <v>-1.829729080200196</v>
       </c>
       <c r="B4" t="n">
-        <v>1.136321544647217</v>
+        <v>1.47260046005249</v>
       </c>
       <c r="C4" t="n">
-        <v>3.083052396774292</v>
+        <v>0.5425764322280884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.937846660614014</v>
+        <v>-1.84237813949585</v>
       </c>
       <c r="B5" t="n">
-        <v>1.245656490325928</v>
+        <v>1.411740303039551</v>
       </c>
       <c r="C5" t="n">
-        <v>3.884034872055054</v>
+        <v>1.237700462341309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.061091899871826</v>
+        <v>-2.159674644470215</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4542388916015625</v>
+        <v>1.136321544647217</v>
       </c>
       <c r="C6" t="n">
-        <v>2.74072003364563</v>
+        <v>3.083052396774292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.979402542114258</v>
+        <v>-1.937846660614014</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1682605743408203</v>
+        <v>1.245656490325928</v>
       </c>
       <c r="C7" t="n">
-        <v>2.131577730178833</v>
+        <v>3.884034872055054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.620201349258423</v>
+        <v>-3.061091899871826</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.011659622192383</v>
+        <v>0.4542388916015625</v>
       </c>
       <c r="C8" t="n">
-        <v>2.961694955825806</v>
+        <v>2.74072003364563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.750590324401856</v>
+        <v>-2.979402542114258</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.630428791046143</v>
+        <v>-0.1682605743408203</v>
       </c>
       <c r="C9" t="n">
-        <v>4.153227806091309</v>
+        <v>2.131577730178833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.631756782531738</v>
+        <v>-3.620201349258423</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1280508041381836</v>
+        <v>-1.011659622192383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0708565711975097</v>
+        <v>2.961694955825806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-6.701959609985352</v>
+        <v>-5.750590324401856</v>
       </c>
       <c r="B11" t="n">
-        <v>13.03308868408203</v>
+        <v>-1.630428791046143</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.955403804779053</v>
+        <v>4.153227806091309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-9.679704666137695</v>
+        <v>-4.631756782531738</v>
       </c>
       <c r="B12" t="n">
-        <v>1.827943325042725</v>
+        <v>0.1280508041381836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2789157629013061</v>
+        <v>0.0708565711975097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.086193084716797</v>
+        <v>-6.701959609985352</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.266827583312988</v>
+        <v>13.03308868408203</v>
       </c>
       <c r="C13" t="n">
-        <v>2.888416528701782</v>
+        <v>-3.955403804779053</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.258205413818359</v>
+        <v>-9.679704666137695</v>
       </c>
       <c r="B14" t="n">
-        <v>1.049188137054443</v>
+        <v>1.827943325042725</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.970268726348877</v>
+        <v>0.2789157629013061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.633459091186523</v>
+        <v>3.086193084716797</v>
       </c>
       <c r="B15" t="n">
-        <v>5.726268291473389</v>
+        <v>-2.266827583312988</v>
       </c>
       <c r="C15" t="n">
-        <v>6.590025901794434</v>
+        <v>2.888416528701782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.84531307220459</v>
+        <v>1.258205413818359</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.8891797065734863</v>
+        <v>1.049188137054443</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.761303424835205</v>
+        <v>-6.970268726348877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9592771530151368</v>
+        <v>-2.633459091186523</v>
       </c>
       <c r="B17" t="n">
-        <v>3.222768306732178</v>
+        <v>5.726268291473389</v>
       </c>
       <c r="C17" t="n">
-        <v>1.57231593132019</v>
+        <v>6.590025901794434</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.009872436523438</v>
+        <v>4.84531307220459</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1888983249664306</v>
+        <v>-0.8891797065734863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.460105299949646</v>
+        <v>-5.761303424835205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.207517623901367</v>
+        <v>0.9592771530151368</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4280340671539306</v>
+        <v>3.222768306732178</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7658971548080444</v>
+        <v>1.57231593132019</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.737979888916016</v>
+        <v>1.009872436523438</v>
       </c>
       <c r="B20" t="n">
-        <v>5.444014549255371</v>
+        <v>-0.1888983249664306</v>
       </c>
       <c r="C20" t="n">
-        <v>1.090345621109009</v>
+        <v>0.460105299949646</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9887199401855468</v>
+        <v>-3.207517623901367</v>
       </c>
       <c r="B21" t="n">
-        <v>3.471959352493286</v>
+        <v>0.4280340671539306</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.082100629806519</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.57354736328125</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.141260385513306</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.086636304855347</v>
+        <v>0.7658971548080444</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-49/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-49/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.921436786651612</v>
+        <v>-1.610764980316162</v>
       </c>
       <c r="B2" t="n">
-        <v>1.638089656829834</v>
+        <v>1.577288150787354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3902863562107086</v>
+        <v>0.315173327922821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.84520435333252</v>
+        <v>-1.949196338653564</v>
       </c>
       <c r="B3" t="n">
-        <v>1.668948650360107</v>
+        <v>1.61798095703125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1994338035583496</v>
+        <v>0.4421060681343078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.829729080200196</v>
+        <v>-1.840867042541504</v>
       </c>
       <c r="B4" t="n">
-        <v>1.47260046005249</v>
+        <v>1.58759355545044</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5425764322280884</v>
+        <v>0.5192338824272156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.84237813949585</v>
+        <v>-1.788941383361816</v>
       </c>
       <c r="B5" t="n">
-        <v>1.411740303039551</v>
+        <v>1.582527160644531</v>
       </c>
       <c r="C5" t="n">
-        <v>1.237700462341309</v>
+        <v>0.4804926216602325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.159674644470215</v>
+        <v>-1.827802658081055</v>
       </c>
       <c r="B6" t="n">
-        <v>1.136321544647217</v>
+        <v>1.591060638427734</v>
       </c>
       <c r="C6" t="n">
-        <v>3.083052396774292</v>
+        <v>0.4033206701278686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.937846660614014</v>
+        <v>-1.872776985168457</v>
       </c>
       <c r="B7" t="n">
-        <v>1.245656490325928</v>
+        <v>1.712420463562011</v>
       </c>
       <c r="C7" t="n">
-        <v>3.884034872055054</v>
+        <v>0.4200127720832824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.061091899871826</v>
+        <v>-1.756282329559326</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4542388916015625</v>
+        <v>1.523788452148438</v>
       </c>
       <c r="C8" t="n">
-        <v>2.74072003364563</v>
+        <v>0.3277221620082855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.979402542114258</v>
+        <v>-1.891244411468506</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1682605743408203</v>
+        <v>1.559478759765625</v>
       </c>
       <c r="C9" t="n">
-        <v>2.131577730178833</v>
+        <v>0.1866782307624817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.620201349258423</v>
+        <v>-1.622483730316162</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.011659622192383</v>
+        <v>1.571603775024414</v>
       </c>
       <c r="C10" t="n">
-        <v>2.961694955825806</v>
+        <v>0.2709611356258392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.750590324401856</v>
+        <v>-1.867420673370361</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.630428791046143</v>
+        <v>1.565328121185303</v>
       </c>
       <c r="C11" t="n">
-        <v>4.153227806091309</v>
+        <v>0.3432579040527344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.631756782531738</v>
+        <v>-1.858330726623535</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1280508041381836</v>
+        <v>1.508580207824707</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0708565711975097</v>
+        <v>0.2882210314273834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-6.701959609985352</v>
+        <v>-1.921436786651612</v>
       </c>
       <c r="B13" t="n">
-        <v>13.03308868408203</v>
+        <v>1.638089656829834</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.955403804779053</v>
+        <v>0.3902863562107086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-9.679704666137695</v>
+        <v>-1.84520435333252</v>
       </c>
       <c r="B14" t="n">
-        <v>1.827943325042725</v>
+        <v>1.668948650360107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2789157629013061</v>
+        <v>0.1994338035583496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.086193084716797</v>
+        <v>-1.829729080200196</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.266827583312988</v>
+        <v>1.47260046005249</v>
       </c>
       <c r="C15" t="n">
-        <v>2.888416528701782</v>
+        <v>0.5425764322280884</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.258205413818359</v>
+        <v>-1.84237813949585</v>
       </c>
       <c r="B16" t="n">
-        <v>1.049188137054443</v>
+        <v>1.411740303039551</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.970268726348877</v>
+        <v>1.237700462341309</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.633459091186523</v>
+        <v>-2.159674644470215</v>
       </c>
       <c r="B17" t="n">
-        <v>5.726268291473389</v>
+        <v>1.136321544647217</v>
       </c>
       <c r="C17" t="n">
-        <v>6.590025901794434</v>
+        <v>3.083052396774292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.84531307220459</v>
+        <v>-1.937846660614014</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.8891797065734863</v>
+        <v>1.245656490325928</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.761303424835205</v>
+        <v>3.884034872055054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9592771530151368</v>
+        <v>-3.061091899871826</v>
       </c>
       <c r="B19" t="n">
-        <v>3.222768306732178</v>
+        <v>0.4542388916015625</v>
       </c>
       <c r="C19" t="n">
-        <v>1.57231593132019</v>
+        <v>2.74072003364563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.009872436523438</v>
+        <v>-2.979402542114258</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1888983249664306</v>
+        <v>-0.1682605743408203</v>
       </c>
       <c r="C20" t="n">
-        <v>0.460105299949646</v>
+        <v>2.131577730178833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.207517623901367</v>
+        <v>-3.620201349258423</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4280340671539306</v>
+        <v>-1.011659622192383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7658971548080444</v>
+        <v>2.961694955825806</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-5.750590324401856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.630428791046143</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.153227806091309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-4.631756782531738</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1280508041381836</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0708565711975097</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-6.701959609985352</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13.03308868408203</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.955403804779053</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-9.679704666137695</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.827943325042725</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2789157629013061</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.086193084716797</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.266827583312988</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.888416528701782</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.258205413818359</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.049188137054443</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.970268726348877</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.633459091186523</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.726268291473389</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.590025901794434</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4.84531307220459</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.8891797065734863</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.761303424835205</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.9592771530151368</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.222768306732178</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.57231593132019</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.009872436523438</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1888983249664306</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.460105299949646</v>
       </c>
     </row>
   </sheetData>
